--- a/mosip_master/xlsx/reason_list.xlsx
+++ b/mosip_master/xlsx/reason_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -158,6 +158,48 @@
   </si>
   <si>
     <t xml:space="preserve">Certains détails démographiques sont Matching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدم تطابق الصورة مع العمر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدم التطابق بين العمر والصورة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدم تطابق الصورة بين الجنسين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدم تطابق الصورة بين الجنسين والصورة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عنوان خاطئ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تم العثور على عنوان غير صالح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تسجيل مكرر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تم العثور على تسجيل مكرر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آحرون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كل التفاصيل متطابقة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جميع التفاصيل الديموغرافية متطابقة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فقط الصورة هي المطابقة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بعض التفاصيل الديموغرافية متطابقة</t>
   </si>
 </sst>
 </file>
@@ -248,7 +290,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -269,6 +311,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -286,14 +332,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.43"/>
   </cols>
   <sheetData>
@@ -677,6 +725,187 @@
         <v>11</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
